--- a/预收账款明细表.xlsx
+++ b/预收账款明细表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10246B86-6250-4380-A368-CC08F986D0DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773E573-30DA-42FA-BF94-CEC116D89759}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="销售订单" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <t>采购合同(编号)</t>
   </si>
   <si>
-    <t>采购合同(编号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发票编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +270,14 @@
   </si>
   <si>
     <t>剩余金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,36 +627,39 @@
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -679,31 +686,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -730,22 +737,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -780,61 +787,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +855,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,43 +878,43 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
         <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -994,19 +1001,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2645FAF1-8E68-4486-B97E-648F040F33B0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1030,25 +1037,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/预收账款明细表.xlsx
+++ b/预收账款明细表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773E573-30DA-42FA-BF94-CEC116D89759}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8CB50E-8A4C-4397-BB25-39BD284FD45C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="销售订单" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开户银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -647,10 +647,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4089-1B3F-4447-A3ED-BF3329918A76}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -787,61 +787,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +878,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -890,31 +890,31 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1001,19 +1001,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1037,25 +1037,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/预收账款明细表.xlsx
+++ b/预收账款明细表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8CB50E-8A4C-4397-BB25-39BD284FD45C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434AD5B0-7879-4244-AFE1-713C42B9A24F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="销售订单" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4089-1B3F-4447-A3ED-BF3329918A76}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18409ADB-FD3A-4F4F-B110-D40BE066751B}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
